--- a/input/DemoInput.xlsx
+++ b/input/DemoInput.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12080"/>
+    <workbookView windowWidth="25600" windowHeight="12080" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Input cases" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>case no.</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>screens</t>
+  </si>
+  <si>
+    <t>log</t>
   </si>
 </sst>
 </file>
@@ -1066,7 +1069,7 @@
   <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -1129,20 +1132,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9.375" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.5" spans="1:3">
+    <row r="1" ht="15.5" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1152,6 +1155,9 @@
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/input/DemoInput.xlsx
+++ b/input/DemoInput.xlsx
@@ -1135,14 +1135,12 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9.375" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="21.75" customWidth="1"/>
+    <col min="1" max="4" width="22.5833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.5" spans="1:4">
